--- a/ApiStage_registre_des_activites_de_traitement.xlsx
+++ b/ApiStage_registre_des_activites_de_traitement.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steiba\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Debian\var\www\ApiStage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248B25C5-D650-47D0-A985-3714FE68E8FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E8A38C-FB23-424E-88BE-DAC7977F51BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3405" yWindow="1635" windowWidth="12000" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1_Liste_des_traitements_ApiStag" sheetId="2" r:id="rId1"/>
@@ -548,7 +548,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="345">
   <si>
     <r>
       <t xml:space="preserve">Coordonnées du responsable de l’organisme
@@ -2562,55 +2562,14 @@
     <xf numFmtId="0" fontId="22" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="16" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2633,9 +2592,62 @@
     <xf numFmtId="0" fontId="23" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="16" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2645,42 +2657,12 @@
     <xf numFmtId="49" fontId="23" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="16" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="16" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="16" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="16" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="16" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="16" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="15" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="16" fillId="16" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2692,10 +2674,28 @@
     <xf numFmtId="49" fontId="16" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="16" fillId="15" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="16" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="16" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="16" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="16" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4260,8 +4260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z972"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4352,15 +4352,15 @@
       <c r="A3" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="123" t="s">
+      <c r="B3" s="106" t="s">
         <v>321</v>
       </c>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
       <c r="I3" s="28"/>
       <c r="J3" s="29" t="str">
         <f>HYPERLINK("https://www.cnil.fr/fr/definition/donnee-personnelle","► Données personnelles")</f>
@@ -4387,15 +4387,15 @@
       <c r="A4" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="125" t="s">
+      <c r="B4" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="125"/>
-      <c r="D4" s="125"/>
-      <c r="E4" s="125"/>
-      <c r="F4" s="125"/>
-      <c r="G4" s="125"/>
-      <c r="H4" s="125"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
       <c r="I4" s="28"/>
       <c r="J4" s="29" t="str">
         <f>HYPERLINK("https://www.cnil.fr/fr/definition/responsable-de-traitement","► Responsable de traitement")</f>
@@ -4422,15 +4422,15 @@
       <c r="A5" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="126">
+      <c r="B5" s="109">
         <v>45007</v>
       </c>
-      <c r="C5" s="127"/>
-      <c r="D5" s="127"/>
-      <c r="E5" s="127"/>
-      <c r="F5" s="127"/>
-      <c r="G5" s="127"/>
-      <c r="H5" s="127"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
       <c r="I5" s="28"/>
       <c r="J5" s="29" t="str">
         <f>HYPERLINK("https://www.cnil.fr/fr/definition/donnee-sensible","► Données sensibles")</f>
@@ -4457,15 +4457,15 @@
       <c r="A6" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="128" t="s">
+      <c r="B6" s="111" t="s">
         <v>326</v>
       </c>
-      <c r="C6" s="128"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="128"/>
-      <c r="F6" s="128"/>
-      <c r="G6" s="128"/>
-      <c r="H6" s="128"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
       <c r="I6" s="28"/>
       <c r="J6" s="29" t="str">
         <f>HYPERLINK("https://www.cnil.fr/fr/definition/finalite-dun-traitement","► Finalité du traitement")</f>
@@ -4615,7 +4615,9 @@
       <c r="A10" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="41"/>
+      <c r="B10" s="41" t="s">
+        <v>320</v>
+      </c>
       <c r="C10" s="42"/>
       <c r="D10" s="42"/>
       <c r="E10" s="42"/>
@@ -4808,15 +4810,15 @@
       <c r="A16" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="129" t="s">
+      <c r="B16" s="112" t="s">
         <v>342</v>
       </c>
-      <c r="C16" s="129"/>
-      <c r="D16" s="129"/>
-      <c r="E16" s="129"/>
-      <c r="F16" s="129"/>
-      <c r="G16" s="129"/>
-      <c r="H16" s="129"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="112"/>
+      <c r="G16" s="112"/>
+      <c r="H16" s="112"/>
       <c r="I16" s="28"/>
       <c r="J16" s="28"/>
       <c r="K16" s="28"/>
@@ -4840,15 +4842,15 @@
       <c r="A17" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="122" t="s">
+      <c r="B17" s="103" t="s">
         <v>341</v>
       </c>
-      <c r="C17" s="122"/>
-      <c r="D17" s="122"/>
-      <c r="E17" s="122"/>
-      <c r="F17" s="122"/>
-      <c r="G17" s="122"/>
-      <c r="H17" s="122"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="103"/>
       <c r="I17" s="28"/>
       <c r="J17" s="28"/>
       <c r="K17" s="28"/>
@@ -4900,17 +4902,17 @@
       <c r="A19" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="103" t="s">
+      <c r="B19" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="103"/>
-      <c r="D19" s="103"/>
-      <c r="E19" s="114" t="s">
+      <c r="C19" s="104"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="114"/>
-      <c r="G19" s="114"/>
-      <c r="H19" s="114"/>
+      <c r="F19" s="105"/>
+      <c r="G19" s="105"/>
+      <c r="H19" s="105"/>
       <c r="I19" s="28"/>
       <c r="J19" s="28"/>
       <c r="K19" s="28"/>
@@ -4934,17 +4936,17 @@
       <c r="A20" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="119" t="s">
+      <c r="B20" s="117" t="s">
         <v>322</v>
       </c>
-      <c r="C20" s="119"/>
-      <c r="D20" s="119"/>
-      <c r="E20" s="120" t="s">
+      <c r="C20" s="117"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="118" t="s">
         <v>328</v>
       </c>
-      <c r="F20" s="121"/>
-      <c r="G20" s="121"/>
-      <c r="H20" s="121"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="119"/>
       <c r="I20" s="28"/>
       <c r="J20" s="28"/>
       <c r="K20" s="28"/>
@@ -4968,15 +4970,15 @@
       <c r="A21" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="156" t="s">
+      <c r="B21" s="120" t="s">
         <v>344</v>
       </c>
-      <c r="C21" s="156"/>
-      <c r="D21" s="156"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="108"/>
-      <c r="G21" s="108"/>
-      <c r="H21" s="108"/>
+      <c r="C21" s="120"/>
+      <c r="D21" s="120"/>
+      <c r="E21" s="121"/>
+      <c r="F21" s="121"/>
+      <c r="G21" s="121"/>
+      <c r="H21" s="121"/>
       <c r="I21" s="28"/>
       <c r="J21" s="28"/>
       <c r="K21" s="28"/>
@@ -5028,17 +5030,17 @@
       <c r="A23" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="103" t="s">
+      <c r="B23" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="103"/>
-      <c r="D23" s="103"/>
-      <c r="E23" s="104" t="s">
+      <c r="C23" s="104"/>
+      <c r="D23" s="104"/>
+      <c r="E23" s="113" t="s">
         <v>65</v>
       </c>
-      <c r="F23" s="104"/>
-      <c r="G23" s="104"/>
-      <c r="H23" s="104"/>
+      <c r="F23" s="113"/>
+      <c r="G23" s="113"/>
+      <c r="H23" s="113"/>
       <c r="I23" s="28"/>
       <c r="J23" s="28"/>
       <c r="K23" s="28"/>
@@ -5062,17 +5064,17 @@
       <c r="A24" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="115" t="s">
+      <c r="B24" s="114" t="s">
         <v>151</v>
       </c>
-      <c r="C24" s="115"/>
-      <c r="D24" s="115"/>
-      <c r="E24" s="117" t="s">
+      <c r="C24" s="114"/>
+      <c r="D24" s="114"/>
+      <c r="E24" s="115" t="s">
         <v>327</v>
       </c>
-      <c r="F24" s="118"/>
-      <c r="G24" s="118"/>
-      <c r="H24" s="118"/>
+      <c r="F24" s="116"/>
+      <c r="G24" s="116"/>
+      <c r="H24" s="116"/>
       <c r="I24" s="28"/>
       <c r="J24" s="28"/>
       <c r="K24" s="28"/>
@@ -5096,13 +5098,13 @@
       <c r="A25" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="111"/>
-      <c r="C25" s="111"/>
-      <c r="D25" s="111"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="112"/>
-      <c r="G25" s="112"/>
-      <c r="H25" s="112"/>
+      <c r="B25" s="124"/>
+      <c r="C25" s="124"/>
+      <c r="D25" s="124"/>
+      <c r="E25" s="125"/>
+      <c r="F25" s="125"/>
+      <c r="G25" s="125"/>
+      <c r="H25" s="125"/>
       <c r="I25" s="28"/>
       <c r="J25" s="28"/>
       <c r="K25" s="28"/>
@@ -5154,17 +5156,17 @@
       <c r="A27" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="B27" s="113" t="s">
+      <c r="B27" s="126" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="113"/>
-      <c r="D27" s="113"/>
-      <c r="E27" s="114" t="s">
+      <c r="C27" s="126"/>
+      <c r="D27" s="126"/>
+      <c r="E27" s="105" t="s">
         <v>65</v>
       </c>
-      <c r="F27" s="114"/>
-      <c r="G27" s="114"/>
-      <c r="H27" s="114"/>
+      <c r="F27" s="105"/>
+      <c r="G27" s="105"/>
+      <c r="H27" s="105"/>
       <c r="I27" s="28"/>
       <c r="J27" s="28"/>
       <c r="K27" s="28"/>
@@ -5188,17 +5190,17 @@
       <c r="A28" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="B28" s="115" t="s">
+      <c r="B28" s="114" t="s">
         <v>109</v>
       </c>
-      <c r="C28" s="115"/>
-      <c r="D28" s="115"/>
-      <c r="E28" s="155" t="s">
+      <c r="C28" s="114"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="127" t="s">
         <v>343</v>
       </c>
-      <c r="F28" s="116"/>
-      <c r="G28" s="116"/>
-      <c r="H28" s="116"/>
+      <c r="F28" s="128"/>
+      <c r="G28" s="128"/>
+      <c r="H28" s="128"/>
       <c r="I28" s="28"/>
       <c r="J28" s="28"/>
       <c r="K28" s="28"/>
@@ -5222,13 +5224,13 @@
       <c r="A29" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="B29" s="109"/>
-      <c r="C29" s="109"/>
-      <c r="D29" s="109"/>
-      <c r="E29" s="110"/>
-      <c r="F29" s="110"/>
-      <c r="G29" s="110"/>
-      <c r="H29" s="110"/>
+      <c r="B29" s="122"/>
+      <c r="C29" s="122"/>
+      <c r="D29" s="122"/>
+      <c r="E29" s="123"/>
+      <c r="F29" s="123"/>
+      <c r="G29" s="123"/>
+      <c r="H29" s="123"/>
       <c r="I29" s="28"/>
       <c r="J29" s="28"/>
       <c r="K29" s="28"/>
@@ -5280,17 +5282,17 @@
       <c r="A31" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="103" t="s">
+      <c r="B31" s="104" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="103"/>
-      <c r="D31" s="103"/>
-      <c r="E31" s="104" t="s">
+      <c r="C31" s="104"/>
+      <c r="D31" s="104"/>
+      <c r="E31" s="113" t="s">
         <v>65</v>
       </c>
-      <c r="F31" s="104"/>
-      <c r="G31" s="104"/>
-      <c r="H31" s="104"/>
+      <c r="F31" s="113"/>
+      <c r="G31" s="113"/>
+      <c r="H31" s="113"/>
       <c r="I31" s="28"/>
       <c r="J31" s="28"/>
       <c r="K31" s="28"/>
@@ -5314,17 +5316,17 @@
       <c r="A32" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="B32" s="105" t="s">
+      <c r="B32" s="129" t="s">
         <v>117</v>
       </c>
-      <c r="C32" s="105"/>
-      <c r="D32" s="105"/>
-      <c r="E32" s="106" t="s">
+      <c r="C32" s="129"/>
+      <c r="D32" s="129"/>
+      <c r="E32" s="130" t="s">
         <v>329</v>
       </c>
-      <c r="F32" s="106"/>
-      <c r="G32" s="106"/>
-      <c r="H32" s="106"/>
+      <c r="F32" s="130"/>
+      <c r="G32" s="130"/>
+      <c r="H32" s="130"/>
       <c r="I32" s="28"/>
       <c r="J32" s="28"/>
       <c r="K32" s="28"/>
@@ -5348,13 +5350,13 @@
       <c r="A33" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="B33" s="107"/>
-      <c r="C33" s="107"/>
-      <c r="D33" s="107"/>
-      <c r="E33" s="108"/>
-      <c r="F33" s="108"/>
-      <c r="G33" s="108"/>
-      <c r="H33" s="108"/>
+      <c r="B33" s="131"/>
+      <c r="C33" s="131"/>
+      <c r="D33" s="131"/>
+      <c r="E33" s="121"/>
+      <c r="F33" s="121"/>
+      <c r="G33" s="121"/>
+      <c r="H33" s="121"/>
       <c r="I33" s="28"/>
       <c r="J33" s="28"/>
       <c r="K33" s="28"/>
@@ -6342,6 +6344,28 @@
     <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:H21"/>
     <mergeCell ref="B17:H17"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="E19:H19"/>
@@ -6350,28 +6374,6 @@
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:H33"/>
   </mergeCells>
   <pageMargins left="0.23625000000000002" right="0.23625000000000002" top="0.70916666666666717" bottom="0.15277777777777801" header="0.31541666666666712" footer="0"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -6475,16 +6477,16 @@
       <c r="Z1" s="28"/>
     </row>
     <row r="2" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="141" t="s">
+      <c r="A2" s="132" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="141"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="141"/>
+      <c r="B2" s="132"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="132"/>
       <c r="I2" s="28"/>
       <c r="J2" s="29" t="str">
         <f>HYPERLINK("https://www.cnil.fr/fr/definition/traitement-de-donnees-caractere-personnel","► Traitement de données à caractère personnel")</f>
@@ -6544,13 +6546,13 @@
       <c r="A4" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="139"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
+      <c r="B4" s="133"/>
+      <c r="C4" s="133"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="133"/>
+      <c r="F4" s="133"/>
+      <c r="G4" s="133"/>
+      <c r="H4" s="133"/>
       <c r="I4" s="28"/>
       <c r="J4" s="29" t="str">
         <f>HYPERLINK("https://www.cnil.fr/fr/definition/donnee-personnelle","► Données personnelles")</f>
@@ -6577,15 +6579,15 @@
       <c r="A5" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="125" t="s">
+      <c r="B5" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="108"/>
+      <c r="H5" s="108"/>
       <c r="I5" s="28"/>
       <c r="J5" s="29" t="str">
         <f>HYPERLINK("https://www.cnil.fr/fr/definition/responsable-de-traitement","► Responsable de traitement")</f>
@@ -6612,13 +6614,13 @@
       <c r="A6" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="139"/>
-      <c r="C6" s="139"/>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
+      <c r="B6" s="133"/>
+      <c r="C6" s="133"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
       <c r="I6" s="28"/>
       <c r="J6" s="29" t="str">
         <f>HYPERLINK("https://www.cnil.fr/fr/definition/donnee-sensible","► Données sensibles")</f>
@@ -6645,13 +6647,13 @@
       <c r="A7" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="110"/>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="110"/>
-      <c r="H7" s="110"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="123"/>
+      <c r="G7" s="123"/>
+      <c r="H7" s="123"/>
       <c r="I7" s="28"/>
       <c r="J7" s="29" t="str">
         <f>HYPERLINK("https://www.cnil.fr/fr/definition/finalite-dun-traitement","► Finalité du traitement")</f>
@@ -6970,13 +6972,13 @@
       <c r="A17" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="140"/>
-      <c r="C17" s="140"/>
-      <c r="D17" s="140"/>
-      <c r="E17" s="140"/>
-      <c r="F17" s="140"/>
-      <c r="G17" s="140"/>
-      <c r="H17" s="140"/>
+      <c r="B17" s="134"/>
+      <c r="C17" s="134"/>
+      <c r="D17" s="134"/>
+      <c r="E17" s="134"/>
+      <c r="F17" s="134"/>
+      <c r="G17" s="134"/>
+      <c r="H17" s="134"/>
       <c r="I17" s="28"/>
       <c r="J17" s="28"/>
       <c r="K17" s="28"/>
@@ -7000,13 +7002,13 @@
       <c r="A18" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="139"/>
-      <c r="C18" s="139"/>
-      <c r="D18" s="139"/>
-      <c r="E18" s="139"/>
-      <c r="F18" s="139"/>
-      <c r="G18" s="139"/>
-      <c r="H18" s="139"/>
+      <c r="B18" s="133"/>
+      <c r="C18" s="133"/>
+      <c r="D18" s="133"/>
+      <c r="E18" s="133"/>
+      <c r="F18" s="133"/>
+      <c r="G18" s="133"/>
+      <c r="H18" s="133"/>
       <c r="I18" s="28"/>
       <c r="J18" s="28"/>
       <c r="K18" s="28"/>
@@ -7030,13 +7032,13 @@
       <c r="A19" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="140"/>
-      <c r="C19" s="140"/>
-      <c r="D19" s="140"/>
-      <c r="E19" s="140"/>
-      <c r="F19" s="140"/>
-      <c r="G19" s="140"/>
-      <c r="H19" s="140"/>
+      <c r="B19" s="134"/>
+      <c r="C19" s="134"/>
+      <c r="D19" s="134"/>
+      <c r="E19" s="134"/>
+      <c r="F19" s="134"/>
+      <c r="G19" s="134"/>
+      <c r="H19" s="134"/>
       <c r="I19" s="28"/>
       <c r="J19" s="28"/>
       <c r="K19" s="28"/>
@@ -7060,13 +7062,13 @@
       <c r="A20" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="108"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="108"/>
-      <c r="E20" s="108"/>
-      <c r="F20" s="108"/>
-      <c r="G20" s="108"/>
-      <c r="H20" s="108"/>
+      <c r="B20" s="121"/>
+      <c r="C20" s="121"/>
+      <c r="D20" s="121"/>
+      <c r="E20" s="121"/>
+      <c r="F20" s="121"/>
+      <c r="G20" s="121"/>
+      <c r="H20" s="121"/>
       <c r="I20" s="28"/>
       <c r="J20" s="28"/>
       <c r="K20" s="28"/>
@@ -7090,13 +7092,13 @@
       <c r="A21" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="140"/>
-      <c r="C21" s="140"/>
-      <c r="D21" s="140"/>
-      <c r="E21" s="140"/>
-      <c r="F21" s="140"/>
-      <c r="G21" s="140"/>
-      <c r="H21" s="140"/>
+      <c r="B21" s="134"/>
+      <c r="C21" s="134"/>
+      <c r="D21" s="134"/>
+      <c r="E21" s="134"/>
+      <c r="F21" s="134"/>
+      <c r="G21" s="134"/>
+      <c r="H21" s="134"/>
       <c r="I21" s="28"/>
       <c r="J21" s="28"/>
       <c r="K21" s="28"/>
@@ -7120,13 +7122,13 @@
       <c r="A22" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="139"/>
-      <c r="C22" s="139"/>
-      <c r="D22" s="139"/>
-      <c r="E22" s="139"/>
-      <c r="F22" s="139"/>
-      <c r="G22" s="139"/>
-      <c r="H22" s="139"/>
+      <c r="B22" s="133"/>
+      <c r="C22" s="133"/>
+      <c r="D22" s="133"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="133"/>
+      <c r="G22" s="133"/>
+      <c r="H22" s="133"/>
       <c r="I22" s="28"/>
       <c r="J22" s="28"/>
       <c r="K22" s="28"/>
@@ -7178,17 +7180,17 @@
       <c r="A24" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="103" t="s">
+      <c r="B24" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="103"/>
-      <c r="D24" s="103"/>
-      <c r="E24" s="114" t="s">
+      <c r="C24" s="104"/>
+      <c r="D24" s="104"/>
+      <c r="E24" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="F24" s="114"/>
-      <c r="G24" s="114"/>
-      <c r="H24" s="114"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="105"/>
       <c r="I24" s="28"/>
       <c r="J24" s="28"/>
       <c r="K24" s="28"/>
@@ -7212,13 +7214,13 @@
       <c r="A25" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="109"/>
-      <c r="C25" s="109"/>
-      <c r="D25" s="109"/>
-      <c r="E25" s="110"/>
-      <c r="F25" s="110"/>
-      <c r="G25" s="110"/>
-      <c r="H25" s="110"/>
+      <c r="B25" s="122"/>
+      <c r="C25" s="122"/>
+      <c r="D25" s="122"/>
+      <c r="E25" s="123"/>
+      <c r="F25" s="123"/>
+      <c r="G25" s="123"/>
+      <c r="H25" s="123"/>
       <c r="I25" s="28"/>
       <c r="J25" s="28"/>
       <c r="K25" s="28"/>
@@ -7242,13 +7244,13 @@
       <c r="A26" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="130"/>
-      <c r="C26" s="130"/>
-      <c r="D26" s="130"/>
-      <c r="E26" s="108"/>
-      <c r="F26" s="108"/>
-      <c r="G26" s="108"/>
-      <c r="H26" s="108"/>
+      <c r="B26" s="135"/>
+      <c r="C26" s="135"/>
+      <c r="D26" s="135"/>
+      <c r="E26" s="121"/>
+      <c r="F26" s="121"/>
+      <c r="G26" s="121"/>
+      <c r="H26" s="121"/>
       <c r="I26" s="28"/>
       <c r="J26" s="28"/>
       <c r="K26" s="28"/>
@@ -7272,13 +7274,13 @@
       <c r="A27" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="109"/>
-      <c r="C27" s="109"/>
-      <c r="D27" s="109"/>
-      <c r="E27" s="110"/>
-      <c r="F27" s="110"/>
-      <c r="G27" s="110"/>
-      <c r="H27" s="110"/>
+      <c r="B27" s="122"/>
+      <c r="C27" s="122"/>
+      <c r="D27" s="122"/>
+      <c r="E27" s="123"/>
+      <c r="F27" s="123"/>
+      <c r="G27" s="123"/>
+      <c r="H27" s="123"/>
       <c r="I27" s="28"/>
       <c r="J27" s="28"/>
       <c r="K27" s="28"/>
@@ -7302,13 +7304,13 @@
       <c r="A28" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="130"/>
-      <c r="C28" s="130"/>
-      <c r="D28" s="130"/>
-      <c r="E28" s="108"/>
-      <c r="F28" s="108"/>
-      <c r="G28" s="108"/>
-      <c r="H28" s="108"/>
+      <c r="B28" s="135"/>
+      <c r="C28" s="135"/>
+      <c r="D28" s="135"/>
+      <c r="E28" s="121"/>
+      <c r="F28" s="121"/>
+      <c r="G28" s="121"/>
+      <c r="H28" s="121"/>
       <c r="I28" s="28"/>
       <c r="J28" s="28"/>
       <c r="K28" s="28"/>
@@ -7332,13 +7334,13 @@
       <c r="A29" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="B29" s="138"/>
-      <c r="C29" s="138"/>
-      <c r="D29" s="138"/>
-      <c r="E29" s="110"/>
-      <c r="F29" s="110"/>
-      <c r="G29" s="110"/>
-      <c r="H29" s="110"/>
+      <c r="B29" s="136"/>
+      <c r="C29" s="136"/>
+      <c r="D29" s="136"/>
+      <c r="E29" s="123"/>
+      <c r="F29" s="123"/>
+      <c r="G29" s="123"/>
+      <c r="H29" s="123"/>
       <c r="I29" s="28"/>
       <c r="J29" s="28"/>
       <c r="K29" s="28"/>
@@ -7362,13 +7364,13 @@
       <c r="A30" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="B30" s="130"/>
-      <c r="C30" s="130"/>
-      <c r="D30" s="130"/>
-      <c r="E30" s="108"/>
-      <c r="F30" s="108"/>
-      <c r="G30" s="108"/>
-      <c r="H30" s="108"/>
+      <c r="B30" s="135"/>
+      <c r="C30" s="135"/>
+      <c r="D30" s="135"/>
+      <c r="E30" s="121"/>
+      <c r="F30" s="121"/>
+      <c r="G30" s="121"/>
+      <c r="H30" s="121"/>
       <c r="I30" s="28"/>
       <c r="J30" s="28"/>
       <c r="K30" s="28"/>
@@ -7420,17 +7422,17 @@
       <c r="A32" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="B32" s="103" t="s">
+      <c r="B32" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="103"/>
-      <c r="D32" s="103"/>
-      <c r="E32" s="114" t="s">
+      <c r="C32" s="104"/>
+      <c r="D32" s="104"/>
+      <c r="E32" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="F32" s="114"/>
-      <c r="G32" s="114"/>
-      <c r="H32" s="114"/>
+      <c r="F32" s="105"/>
+      <c r="G32" s="105"/>
+      <c r="H32" s="105"/>
       <c r="I32" s="28"/>
       <c r="J32" s="28"/>
       <c r="K32" s="28"/>
@@ -7454,13 +7456,13 @@
       <c r="A33" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="109"/>
-      <c r="C33" s="109"/>
-      <c r="D33" s="109"/>
-      <c r="E33" s="110"/>
-      <c r="F33" s="110"/>
-      <c r="G33" s="110"/>
-      <c r="H33" s="110"/>
+      <c r="B33" s="122"/>
+      <c r="C33" s="122"/>
+      <c r="D33" s="122"/>
+      <c r="E33" s="123"/>
+      <c r="F33" s="123"/>
+      <c r="G33" s="123"/>
+      <c r="H33" s="123"/>
       <c r="I33" s="28"/>
       <c r="J33" s="28"/>
       <c r="K33" s="28"/>
@@ -7484,13 +7486,13 @@
       <c r="A34" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="130"/>
-      <c r="C34" s="130"/>
-      <c r="D34" s="130"/>
-      <c r="E34" s="108"/>
-      <c r="F34" s="108"/>
-      <c r="G34" s="108"/>
-      <c r="H34" s="108"/>
+      <c r="B34" s="135"/>
+      <c r="C34" s="135"/>
+      <c r="D34" s="135"/>
+      <c r="E34" s="121"/>
+      <c r="F34" s="121"/>
+      <c r="G34" s="121"/>
+      <c r="H34" s="121"/>
       <c r="I34" s="28"/>
       <c r="J34" s="28"/>
       <c r="K34" s="28"/>
@@ -7514,13 +7516,13 @@
       <c r="A35" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="B35" s="109"/>
-      <c r="C35" s="109"/>
-      <c r="D35" s="109"/>
-      <c r="E35" s="110"/>
-      <c r="F35" s="110"/>
-      <c r="G35" s="110"/>
-      <c r="H35" s="110"/>
+      <c r="B35" s="122"/>
+      <c r="C35" s="122"/>
+      <c r="D35" s="122"/>
+      <c r="E35" s="123"/>
+      <c r="F35" s="123"/>
+      <c r="G35" s="123"/>
+      <c r="H35" s="123"/>
       <c r="I35" s="28"/>
       <c r="J35" s="28"/>
       <c r="K35" s="28"/>
@@ -7544,13 +7546,13 @@
       <c r="A36" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="B36" s="130"/>
-      <c r="C36" s="130"/>
-      <c r="D36" s="130"/>
-      <c r="E36" s="108"/>
-      <c r="F36" s="108"/>
-      <c r="G36" s="108"/>
-      <c r="H36" s="108"/>
+      <c r="B36" s="135"/>
+      <c r="C36" s="135"/>
+      <c r="D36" s="135"/>
+      <c r="E36" s="121"/>
+      <c r="F36" s="121"/>
+      <c r="G36" s="121"/>
+      <c r="H36" s="121"/>
       <c r="I36" s="28"/>
       <c r="J36" s="28"/>
       <c r="K36" s="28"/>
@@ -7574,13 +7576,13 @@
       <c r="A37" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B37" s="109"/>
-      <c r="C37" s="109"/>
-      <c r="D37" s="109"/>
-      <c r="E37" s="110"/>
-      <c r="F37" s="110"/>
-      <c r="G37" s="110"/>
-      <c r="H37" s="110"/>
+      <c r="B37" s="122"/>
+      <c r="C37" s="122"/>
+      <c r="D37" s="122"/>
+      <c r="E37" s="123"/>
+      <c r="F37" s="123"/>
+      <c r="G37" s="123"/>
+      <c r="H37" s="123"/>
       <c r="I37" s="28"/>
       <c r="J37" s="28"/>
       <c r="K37" s="28"/>
@@ -7604,13 +7606,13 @@
       <c r="A38" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="B38" s="130"/>
-      <c r="C38" s="130"/>
-      <c r="D38" s="130"/>
-      <c r="E38" s="108"/>
-      <c r="F38" s="108"/>
-      <c r="G38" s="108"/>
-      <c r="H38" s="108"/>
+      <c r="B38" s="135"/>
+      <c r="C38" s="135"/>
+      <c r="D38" s="135"/>
+      <c r="E38" s="121"/>
+      <c r="F38" s="121"/>
+      <c r="G38" s="121"/>
+      <c r="H38" s="121"/>
       <c r="I38" s="28"/>
       <c r="J38" s="28"/>
       <c r="K38" s="28"/>
@@ -7634,13 +7636,13 @@
       <c r="A39" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="B39" s="109"/>
-      <c r="C39" s="109"/>
-      <c r="D39" s="109"/>
-      <c r="E39" s="110"/>
-      <c r="F39" s="110"/>
-      <c r="G39" s="110"/>
-      <c r="H39" s="110"/>
+      <c r="B39" s="122"/>
+      <c r="C39" s="122"/>
+      <c r="D39" s="122"/>
+      <c r="E39" s="123"/>
+      <c r="F39" s="123"/>
+      <c r="G39" s="123"/>
+      <c r="H39" s="123"/>
       <c r="I39" s="28"/>
       <c r="J39" s="28"/>
       <c r="K39" s="28"/>
@@ -7664,13 +7666,13 @@
       <c r="A40" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="B40" s="130"/>
-      <c r="C40" s="130"/>
-      <c r="D40" s="130"/>
-      <c r="E40" s="108"/>
-      <c r="F40" s="108"/>
-      <c r="G40" s="108"/>
-      <c r="H40" s="108"/>
+      <c r="B40" s="135"/>
+      <c r="C40" s="135"/>
+      <c r="D40" s="135"/>
+      <c r="E40" s="121"/>
+      <c r="F40" s="121"/>
+      <c r="G40" s="121"/>
+      <c r="H40" s="121"/>
       <c r="I40" s="28"/>
       <c r="J40" s="28"/>
       <c r="K40" s="28"/>
@@ -7694,13 +7696,13 @@
       <c r="A41" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="B41" s="109"/>
-      <c r="C41" s="109"/>
-      <c r="D41" s="109"/>
-      <c r="E41" s="110"/>
-      <c r="F41" s="110"/>
-      <c r="G41" s="110"/>
-      <c r="H41" s="110"/>
+      <c r="B41" s="122"/>
+      <c r="C41" s="122"/>
+      <c r="D41" s="122"/>
+      <c r="E41" s="123"/>
+      <c r="F41" s="123"/>
+      <c r="G41" s="123"/>
+      <c r="H41" s="123"/>
       <c r="I41" s="28"/>
       <c r="J41" s="28"/>
       <c r="K41" s="28"/>
@@ -7752,17 +7754,17 @@
       <c r="A43" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="B43" s="103" t="s">
+      <c r="B43" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="C43" s="103"/>
-      <c r="D43" s="103"/>
-      <c r="E43" s="104" t="s">
+      <c r="C43" s="104"/>
+      <c r="D43" s="104"/>
+      <c r="E43" s="113" t="s">
         <v>65</v>
       </c>
-      <c r="F43" s="104"/>
-      <c r="G43" s="104"/>
-      <c r="H43" s="104"/>
+      <c r="F43" s="113"/>
+      <c r="G43" s="113"/>
+      <c r="H43" s="113"/>
       <c r="I43" s="28"/>
       <c r="J43" s="28"/>
       <c r="K43" s="28"/>
@@ -7786,11 +7788,11 @@
       <c r="A44" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="B44" s="115" t="s">
+      <c r="B44" s="114" t="s">
         <v>67</v>
       </c>
-      <c r="C44" s="115"/>
-      <c r="D44" s="115"/>
+      <c r="C44" s="114"/>
+      <c r="D44" s="114"/>
       <c r="E44" s="137"/>
       <c r="F44" s="137"/>
       <c r="G44" s="137"/>
@@ -7818,13 +7820,13 @@
       <c r="A45" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="B45" s="111"/>
-      <c r="C45" s="111"/>
-      <c r="D45" s="111"/>
-      <c r="E45" s="112"/>
-      <c r="F45" s="112"/>
-      <c r="G45" s="112"/>
-      <c r="H45" s="112"/>
+      <c r="B45" s="124"/>
+      <c r="C45" s="124"/>
+      <c r="D45" s="124"/>
+      <c r="E45" s="125"/>
+      <c r="F45" s="125"/>
+      <c r="G45" s="125"/>
+      <c r="H45" s="125"/>
       <c r="I45" s="28"/>
       <c r="J45" s="28"/>
       <c r="K45" s="28"/>
@@ -7876,17 +7878,17 @@
       <c r="A47" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="B47" s="113" t="s">
+      <c r="B47" s="126" t="s">
         <v>70</v>
       </c>
-      <c r="C47" s="113"/>
-      <c r="D47" s="113"/>
-      <c r="E47" s="114" t="s">
+      <c r="C47" s="126"/>
+      <c r="D47" s="126"/>
+      <c r="E47" s="105" t="s">
         <v>65</v>
       </c>
-      <c r="F47" s="114"/>
-      <c r="G47" s="114"/>
-      <c r="H47" s="114"/>
+      <c r="F47" s="105"/>
+      <c r="G47" s="105"/>
+      <c r="H47" s="105"/>
       <c r="I47" s="28"/>
       <c r="J47" s="28"/>
       <c r="K47" s="28"/>
@@ -7910,15 +7912,15 @@
       <c r="A48" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="B48" s="115" t="s">
+      <c r="B48" s="114" t="s">
         <v>67</v>
       </c>
-      <c r="C48" s="115"/>
-      <c r="D48" s="115"/>
-      <c r="E48" s="108"/>
-      <c r="F48" s="108"/>
-      <c r="G48" s="108"/>
-      <c r="H48" s="108"/>
+      <c r="C48" s="114"/>
+      <c r="D48" s="114"/>
+      <c r="E48" s="121"/>
+      <c r="F48" s="121"/>
+      <c r="G48" s="121"/>
+      <c r="H48" s="121"/>
       <c r="I48" s="28"/>
       <c r="J48" s="28"/>
       <c r="K48" s="28"/>
@@ -7942,13 +7944,13 @@
       <c r="A49" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="B49" s="109"/>
-      <c r="C49" s="109"/>
-      <c r="D49" s="109"/>
-      <c r="E49" s="110"/>
-      <c r="F49" s="110"/>
-      <c r="G49" s="110"/>
-      <c r="H49" s="110"/>
+      <c r="B49" s="122"/>
+      <c r="C49" s="122"/>
+      <c r="D49" s="122"/>
+      <c r="E49" s="123"/>
+      <c r="F49" s="123"/>
+      <c r="G49" s="123"/>
+      <c r="H49" s="123"/>
       <c r="I49" s="28"/>
       <c r="J49" s="28"/>
       <c r="K49" s="28"/>
@@ -7972,13 +7974,13 @@
       <c r="A50" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="B50" s="130"/>
-      <c r="C50" s="130"/>
-      <c r="D50" s="130"/>
-      <c r="E50" s="108"/>
-      <c r="F50" s="108"/>
-      <c r="G50" s="108"/>
-      <c r="H50" s="108"/>
+      <c r="B50" s="135"/>
+      <c r="C50" s="135"/>
+      <c r="D50" s="135"/>
+      <c r="E50" s="121"/>
+      <c r="F50" s="121"/>
+      <c r="G50" s="121"/>
+      <c r="H50" s="121"/>
       <c r="I50" s="28"/>
       <c r="J50" s="28"/>
       <c r="K50" s="28"/>
@@ -8002,13 +8004,13 @@
       <c r="A51" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="B51" s="109"/>
-      <c r="C51" s="109"/>
-      <c r="D51" s="109"/>
-      <c r="E51" s="110"/>
-      <c r="F51" s="110"/>
-      <c r="G51" s="110"/>
-      <c r="H51" s="110"/>
+      <c r="B51" s="122"/>
+      <c r="C51" s="122"/>
+      <c r="D51" s="122"/>
+      <c r="E51" s="123"/>
+      <c r="F51" s="123"/>
+      <c r="G51" s="123"/>
+      <c r="H51" s="123"/>
       <c r="I51" s="28"/>
       <c r="J51" s="28"/>
       <c r="K51" s="28"/>
@@ -8060,17 +8062,17 @@
       <c r="A53" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="B53" s="103" t="s">
+      <c r="B53" s="104" t="s">
         <v>76</v>
       </c>
-      <c r="C53" s="103"/>
-      <c r="D53" s="103"/>
-      <c r="E53" s="104" t="s">
+      <c r="C53" s="104"/>
+      <c r="D53" s="104"/>
+      <c r="E53" s="113" t="s">
         <v>65</v>
       </c>
-      <c r="F53" s="104"/>
-      <c r="G53" s="104"/>
-      <c r="H53" s="104"/>
+      <c r="F53" s="113"/>
+      <c r="G53" s="113"/>
+      <c r="H53" s="113"/>
       <c r="I53" s="28"/>
       <c r="J53" s="28"/>
       <c r="K53" s="28"/>
@@ -8094,15 +8096,15 @@
       <c r="A54" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="B54" s="105" t="s">
+      <c r="B54" s="129" t="s">
         <v>67</v>
       </c>
-      <c r="C54" s="105"/>
-      <c r="D54" s="105"/>
-      <c r="E54" s="136"/>
-      <c r="F54" s="136"/>
-      <c r="G54" s="136"/>
-      <c r="H54" s="136"/>
+      <c r="C54" s="129"/>
+      <c r="D54" s="129"/>
+      <c r="E54" s="138"/>
+      <c r="F54" s="138"/>
+      <c r="G54" s="138"/>
+      <c r="H54" s="138"/>
       <c r="I54" s="28"/>
       <c r="J54" s="28"/>
       <c r="K54" s="28"/>
@@ -8126,13 +8128,13 @@
       <c r="A55" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="B55" s="130"/>
-      <c r="C55" s="130"/>
-      <c r="D55" s="130"/>
-      <c r="E55" s="108"/>
-      <c r="F55" s="108"/>
-      <c r="G55" s="108"/>
-      <c r="H55" s="108"/>
+      <c r="B55" s="135"/>
+      <c r="C55" s="135"/>
+      <c r="D55" s="135"/>
+      <c r="E55" s="121"/>
+      <c r="F55" s="121"/>
+      <c r="G55" s="121"/>
+      <c r="H55" s="121"/>
       <c r="I55" s="28"/>
       <c r="J55" s="28"/>
       <c r="K55" s="28"/>
@@ -8156,13 +8158,13 @@
       <c r="A56" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="B56" s="109"/>
-      <c r="C56" s="109"/>
-      <c r="D56" s="109"/>
-      <c r="E56" s="110"/>
-      <c r="F56" s="110"/>
-      <c r="G56" s="110"/>
-      <c r="H56" s="110"/>
+      <c r="B56" s="122"/>
+      <c r="C56" s="122"/>
+      <c r="D56" s="122"/>
+      <c r="E56" s="123"/>
+      <c r="F56" s="123"/>
+      <c r="G56" s="123"/>
+      <c r="H56" s="123"/>
       <c r="I56" s="28"/>
       <c r="J56" s="28"/>
       <c r="K56" s="28"/>
@@ -8220,15 +8222,15 @@
       <c r="C58" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="D58" s="133" t="s">
+      <c r="D58" s="139" t="s">
         <v>82</v>
       </c>
-      <c r="E58" s="133"/>
-      <c r="F58" s="134" t="s">
+      <c r="E58" s="139"/>
+      <c r="F58" s="140" t="s">
         <v>83</v>
       </c>
-      <c r="G58" s="134"/>
-      <c r="H58" s="134"/>
+      <c r="G58" s="140"/>
+      <c r="H58" s="140"/>
       <c r="I58" s="28"/>
       <c r="J58" s="28"/>
       <c r="K58" s="28"/>
@@ -8256,13 +8258,13 @@
       <c r="C59" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="D59" s="135" t="s">
+      <c r="D59" s="141" t="s">
         <v>67</v>
       </c>
-      <c r="E59" s="135"/>
-      <c r="F59" s="132"/>
-      <c r="G59" s="132"/>
-      <c r="H59" s="132"/>
+      <c r="E59" s="141"/>
+      <c r="F59" s="142"/>
+      <c r="G59" s="142"/>
+      <c r="H59" s="142"/>
       <c r="I59" s="28"/>
       <c r="J59" s="28"/>
       <c r="K59" s="28"/>
@@ -8288,11 +8290,11 @@
       </c>
       <c r="B60" s="66"/>
       <c r="C60" s="67"/>
-      <c r="D60" s="130"/>
-      <c r="E60" s="130"/>
-      <c r="F60" s="131"/>
-      <c r="G60" s="131"/>
-      <c r="H60" s="131"/>
+      <c r="D60" s="135"/>
+      <c r="E60" s="135"/>
+      <c r="F60" s="143"/>
+      <c r="G60" s="143"/>
+      <c r="H60" s="143"/>
       <c r="I60" s="28"/>
       <c r="J60" s="28"/>
       <c r="K60" s="28"/>
@@ -8318,11 +8320,11 @@
       </c>
       <c r="B61" s="64"/>
       <c r="C61" s="68"/>
-      <c r="D61" s="109"/>
-      <c r="E61" s="109"/>
-      <c r="F61" s="132"/>
-      <c r="G61" s="132"/>
-      <c r="H61" s="132"/>
+      <c r="D61" s="122"/>
+      <c r="E61" s="122"/>
+      <c r="F61" s="142"/>
+      <c r="G61" s="142"/>
+      <c r="H61" s="142"/>
       <c r="I61" s="28"/>
       <c r="J61" s="28"/>
       <c r="K61" s="28"/>
@@ -8348,10 +8350,10 @@
       </c>
       <c r="B62" s="66"/>
       <c r="C62" s="67"/>
-      <c r="D62" s="130"/>
-      <c r="E62" s="130"/>
-      <c r="F62" s="130"/>
-      <c r="G62" s="130"/>
+      <c r="D62" s="135"/>
+      <c r="E62" s="135"/>
+      <c r="F62" s="135"/>
+      <c r="G62" s="135"/>
       <c r="H62" s="69"/>
       <c r="I62" s="28"/>
       <c r="J62" s="28"/>
@@ -9312,6 +9314,72 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="79">
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="F60:H60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="F61:H61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="F58:H58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="F59:H59"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="E47:H47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="E48:H48"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:H27"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E24:H24"/>
     <mergeCell ref="A2:H2"/>
@@ -9325,72 +9393,6 @@
     <mergeCell ref="B20:H20"/>
     <mergeCell ref="B21:H21"/>
     <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="E43:H43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:H44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="E45:H45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="E47:H47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="E48:H48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="F58:H58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="F59:H59"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="F60:H60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="F61:H61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F62:G62"/>
   </mergeCells>
   <pageMargins left="0.23625000000000002" right="0.23625000000000002" top="0.70916666666666717" bottom="0.15277777777777801" header="0.31541666666666712" footer="0"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -9507,16 +9509,16 @@
       <c r="Z1" s="28"/>
     </row>
     <row r="2" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="141" t="s">
+      <c r="A2" s="132" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="141"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="141"/>
+      <c r="B2" s="132"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="132"/>
       <c r="I2" s="28"/>
       <c r="J2" s="29" t="str">
         <f>HYPERLINK("https://www.cnil.fr/fr/definition/traitement-de-donnees-caractere-personnel","► Traitement de données à caractère personnel")</f>
@@ -9576,15 +9578,15 @@
       <c r="A4" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="152" t="s">
+      <c r="B4" s="146" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="152"/>
-      <c r="D4" s="152"/>
-      <c r="E4" s="152"/>
-      <c r="F4" s="152"/>
-      <c r="G4" s="152"/>
-      <c r="H4" s="152"/>
+      <c r="C4" s="146"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
       <c r="I4" s="28"/>
       <c r="J4" s="29" t="str">
         <f>HYPERLINK("https://www.cnil.fr/fr/definition/donnee-personnelle","► Données personnelles")</f>
@@ -9611,15 +9613,15 @@
       <c r="A5" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="153" t="s">
+      <c r="B5" s="147" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="153"/>
-      <c r="D5" s="153"/>
-      <c r="E5" s="153"/>
-      <c r="F5" s="153"/>
-      <c r="G5" s="153"/>
-      <c r="H5" s="153"/>
+      <c r="C5" s="147"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
       <c r="I5" s="28"/>
       <c r="J5" s="29" t="str">
         <f>HYPERLINK("https://www.cnil.fr/fr/definition/responsable-de-traitement","► Responsable de traitement")</f>
@@ -9646,15 +9648,15 @@
       <c r="A6" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="152">
+      <c r="B6" s="146">
         <v>43246</v>
       </c>
-      <c r="C6" s="152"/>
-      <c r="D6" s="152"/>
-      <c r="E6" s="152"/>
-      <c r="F6" s="152"/>
-      <c r="G6" s="152"/>
-      <c r="H6" s="152"/>
+      <c r="C6" s="146"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
       <c r="I6" s="28"/>
       <c r="J6" s="29" t="str">
         <f>HYPERLINK("https://www.cnil.fr/fr/definition/donnee-sensible","► Données sensibles")</f>
@@ -9681,15 +9683,15 @@
       <c r="A7" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="154" t="s">
+      <c r="B7" s="148" t="s">
         <v>91</v>
       </c>
-      <c r="C7" s="154"/>
-      <c r="D7" s="154"/>
-      <c r="E7" s="154"/>
-      <c r="F7" s="154"/>
-      <c r="G7" s="154"/>
-      <c r="H7" s="154"/>
+      <c r="C7" s="148"/>
+      <c r="D7" s="148"/>
+      <c r="E7" s="148"/>
+      <c r="F7" s="148"/>
+      <c r="G7" s="148"/>
+      <c r="H7" s="148"/>
       <c r="I7" s="28"/>
       <c r="J7" s="29" t="str">
         <f>HYPERLINK("https://www.cnil.fr/fr/definition/finalite-dun-traitement","► Finalité du traitement")</f>
@@ -9978,15 +9980,15 @@
       <c r="A15" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="151" t="s">
+      <c r="B15" s="149" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="151"/>
-      <c r="D15" s="151"/>
-      <c r="E15" s="151"/>
-      <c r="F15" s="151"/>
-      <c r="G15" s="151"/>
-      <c r="H15" s="151"/>
+      <c r="C15" s="149"/>
+      <c r="D15" s="149"/>
+      <c r="E15" s="149"/>
+      <c r="F15" s="149"/>
+      <c r="G15" s="149"/>
+      <c r="H15" s="149"/>
       <c r="I15" s="28"/>
       <c r="J15" s="28"/>
       <c r="K15" s="28"/>
@@ -10042,15 +10044,15 @@
       <c r="A17" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="151" t="s">
+      <c r="B17" s="149" t="s">
         <v>102</v>
       </c>
-      <c r="C17" s="151"/>
-      <c r="D17" s="151"/>
-      <c r="E17" s="151"/>
-      <c r="F17" s="151"/>
-      <c r="G17" s="151"/>
-      <c r="H17" s="151"/>
+      <c r="C17" s="149"/>
+      <c r="D17" s="149"/>
+      <c r="E17" s="149"/>
+      <c r="F17" s="149"/>
+      <c r="G17" s="149"/>
+      <c r="H17" s="149"/>
       <c r="I17" s="28"/>
       <c r="J17" s="28"/>
       <c r="K17" s="28"/>
@@ -10134,17 +10136,17 @@
       <c r="A20" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="103" t="s">
+      <c r="B20" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="103"/>
-      <c r="D20" s="103"/>
-      <c r="E20" s="114" t="s">
+      <c r="C20" s="104"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="F20" s="114"/>
-      <c r="G20" s="114"/>
-      <c r="H20" s="114"/>
+      <c r="F20" s="105"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="105"/>
       <c r="I20" s="85"/>
       <c r="J20" s="28"/>
       <c r="K20" s="28"/>
@@ -10168,17 +10170,17 @@
       <c r="A21" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="143" t="s">
+      <c r="B21" s="144" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="143"/>
-      <c r="D21" s="143"/>
-      <c r="E21" s="149" t="s">
+      <c r="C21" s="144"/>
+      <c r="D21" s="144"/>
+      <c r="E21" s="145" t="s">
         <v>105</v>
       </c>
-      <c r="F21" s="149"/>
-      <c r="G21" s="149"/>
-      <c r="H21" s="149"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="145"/>
       <c r="I21" s="85"/>
       <c r="J21" s="28"/>
       <c r="K21" s="28"/>
@@ -10202,17 +10204,17 @@
       <c r="A22" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="147" t="s">
+      <c r="B22" s="151" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="147"/>
-      <c r="D22" s="147"/>
-      <c r="E22" s="149" t="s">
+      <c r="C22" s="151"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="145" t="s">
         <v>105</v>
       </c>
-      <c r="F22" s="149"/>
-      <c r="G22" s="149"/>
-      <c r="H22" s="149"/>
+      <c r="F22" s="145"/>
+      <c r="G22" s="145"/>
+      <c r="H22" s="145"/>
       <c r="I22" s="86"/>
       <c r="J22" s="28"/>
       <c r="K22" s="28"/>
@@ -10236,17 +10238,17 @@
       <c r="A23" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="143" t="s">
+      <c r="B23" s="144" t="s">
         <v>107</v>
       </c>
-      <c r="C23" s="143"/>
-      <c r="D23" s="143"/>
-      <c r="E23" s="149" t="s">
+      <c r="C23" s="144"/>
+      <c r="D23" s="144"/>
+      <c r="E23" s="145" t="s">
         <v>105</v>
       </c>
-      <c r="F23" s="149"/>
-      <c r="G23" s="149"/>
-      <c r="H23" s="149"/>
+      <c r="F23" s="145"/>
+      <c r="G23" s="145"/>
+      <c r="H23" s="145"/>
       <c r="I23" s="28"/>
       <c r="J23" s="28"/>
       <c r="K23" s="28"/>
@@ -10298,17 +10300,17 @@
       <c r="A25" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="103" t="s">
+      <c r="B25" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="103"/>
-      <c r="D25" s="103"/>
-      <c r="E25" s="104" t="s">
+      <c r="C25" s="104"/>
+      <c r="D25" s="104"/>
+      <c r="E25" s="113" t="s">
         <v>65</v>
       </c>
-      <c r="F25" s="104"/>
-      <c r="G25" s="104"/>
-      <c r="H25" s="104"/>
+      <c r="F25" s="113"/>
+      <c r="G25" s="113"/>
+      <c r="H25" s="113"/>
       <c r="I25" s="28"/>
       <c r="J25" s="28"/>
       <c r="K25" s="28"/>
@@ -10332,11 +10334,11 @@
       <c r="A26" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="147" t="s">
+      <c r="B26" s="151" t="s">
         <v>108</v>
       </c>
-      <c r="C26" s="147"/>
-      <c r="D26" s="147"/>
+      <c r="C26" s="151"/>
+      <c r="D26" s="151"/>
       <c r="E26" s="137"/>
       <c r="F26" s="137"/>
       <c r="G26" s="137"/>
@@ -10392,17 +10394,17 @@
       <c r="A28" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="113" t="s">
+      <c r="B28" s="126" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="113"/>
-      <c r="D28" s="113"/>
-      <c r="E28" s="114" t="s">
+      <c r="C28" s="126"/>
+      <c r="D28" s="126"/>
+      <c r="E28" s="105" t="s">
         <v>65</v>
       </c>
-      <c r="F28" s="114"/>
-      <c r="G28" s="114"/>
-      <c r="H28" s="114"/>
+      <c r="F28" s="105"/>
+      <c r="G28" s="105"/>
+      <c r="H28" s="105"/>
       <c r="I28" s="28"/>
       <c r="J28" s="28"/>
       <c r="K28" s="28"/>
@@ -10426,17 +10428,17 @@
       <c r="A29" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="147" t="s">
+      <c r="B29" s="151" t="s">
         <v>109</v>
       </c>
-      <c r="C29" s="147"/>
-      <c r="D29" s="147"/>
-      <c r="E29" s="148" t="s">
+      <c r="C29" s="151"/>
+      <c r="D29" s="151"/>
+      <c r="E29" s="152" t="s">
         <v>110</v>
       </c>
-      <c r="F29" s="148"/>
-      <c r="G29" s="148"/>
-      <c r="H29" s="148"/>
+      <c r="F29" s="152"/>
+      <c r="G29" s="152"/>
+      <c r="H29" s="152"/>
       <c r="I29" s="28"/>
       <c r="J29" s="28"/>
       <c r="K29" s="28"/>
@@ -10460,17 +10462,17 @@
       <c r="A30" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="B30" s="145" t="s">
+      <c r="B30" s="153" t="s">
         <v>111</v>
       </c>
-      <c r="C30" s="145"/>
-      <c r="D30" s="145"/>
-      <c r="E30" s="146" t="s">
+      <c r="C30" s="153"/>
+      <c r="D30" s="153"/>
+      <c r="E30" s="154" t="s">
         <v>112</v>
       </c>
-      <c r="F30" s="146"/>
-      <c r="G30" s="146"/>
-      <c r="H30" s="146"/>
+      <c r="F30" s="154"/>
+      <c r="G30" s="154"/>
+      <c r="H30" s="154"/>
       <c r="I30" s="28"/>
       <c r="J30" s="28"/>
       <c r="K30" s="28"/>
@@ -10494,17 +10496,17 @@
       <c r="A31" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="147" t="s">
+      <c r="B31" s="151" t="s">
         <v>113</v>
       </c>
-      <c r="C31" s="147"/>
-      <c r="D31" s="147"/>
-      <c r="E31" s="148" t="s">
+      <c r="C31" s="151"/>
+      <c r="D31" s="151"/>
+      <c r="E31" s="152" t="s">
         <v>114</v>
       </c>
-      <c r="F31" s="148"/>
-      <c r="G31" s="148"/>
-      <c r="H31" s="148"/>
+      <c r="F31" s="152"/>
+      <c r="G31" s="152"/>
+      <c r="H31" s="152"/>
       <c r="I31" s="28"/>
       <c r="J31" s="28"/>
       <c r="K31" s="28"/>
@@ -10556,17 +10558,17 @@
       <c r="A33" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="103" t="s">
+      <c r="B33" s="104" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="103"/>
-      <c r="D33" s="103"/>
-      <c r="E33" s="104" t="s">
+      <c r="C33" s="104"/>
+      <c r="D33" s="104"/>
+      <c r="E33" s="113" t="s">
         <v>65</v>
       </c>
-      <c r="F33" s="104"/>
-      <c r="G33" s="104"/>
-      <c r="H33" s="104"/>
+      <c r="F33" s="113"/>
+      <c r="G33" s="113"/>
+      <c r="H33" s="113"/>
       <c r="I33" s="28"/>
       <c r="J33" s="28"/>
       <c r="K33" s="28"/>
@@ -10590,15 +10592,15 @@
       <c r="A34" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="142" t="s">
+      <c r="B34" s="155" t="s">
         <v>115</v>
       </c>
-      <c r="C34" s="142"/>
-      <c r="D34" s="142"/>
-      <c r="E34" s="136"/>
-      <c r="F34" s="136"/>
-      <c r="G34" s="136"/>
-      <c r="H34" s="136"/>
+      <c r="C34" s="155"/>
+      <c r="D34" s="155"/>
+      <c r="E34" s="138"/>
+      <c r="F34" s="138"/>
+      <c r="G34" s="138"/>
+      <c r="H34" s="138"/>
       <c r="I34" s="28"/>
       <c r="J34" s="28"/>
       <c r="K34" s="28"/>
@@ -10622,15 +10624,15 @@
       <c r="A35" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="B35" s="144" t="s">
+      <c r="B35" s="156" t="s">
         <v>116</v>
       </c>
-      <c r="C35" s="144"/>
-      <c r="D35" s="144"/>
-      <c r="E35" s="108"/>
-      <c r="F35" s="108"/>
-      <c r="G35" s="108"/>
-      <c r="H35" s="108"/>
+      <c r="C35" s="156"/>
+      <c r="D35" s="156"/>
+      <c r="E35" s="121"/>
+      <c r="F35" s="121"/>
+      <c r="G35" s="121"/>
+      <c r="H35" s="121"/>
       <c r="I35" s="28"/>
       <c r="J35" s="28"/>
       <c r="K35" s="28"/>
@@ -10654,15 +10656,15 @@
       <c r="A36" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="B36" s="142" t="s">
+      <c r="B36" s="155" t="s">
         <v>117</v>
       </c>
-      <c r="C36" s="142"/>
-      <c r="D36" s="142"/>
-      <c r="E36" s="110"/>
-      <c r="F36" s="110"/>
-      <c r="G36" s="110"/>
-      <c r="H36" s="110"/>
+      <c r="C36" s="155"/>
+      <c r="D36" s="155"/>
+      <c r="E36" s="123"/>
+      <c r="F36" s="123"/>
+      <c r="G36" s="123"/>
+      <c r="H36" s="123"/>
       <c r="I36" s="28"/>
       <c r="J36" s="28"/>
       <c r="K36" s="28"/>
@@ -10720,15 +10722,15 @@
       <c r="C38" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="D38" s="133" t="s">
+      <c r="D38" s="139" t="s">
         <v>82</v>
       </c>
-      <c r="E38" s="133"/>
-      <c r="F38" s="134" t="s">
+      <c r="E38" s="139"/>
+      <c r="F38" s="140" t="s">
         <v>83</v>
       </c>
-      <c r="G38" s="134"/>
-      <c r="H38" s="134"/>
+      <c r="G38" s="140"/>
+      <c r="H38" s="140"/>
       <c r="I38" s="28"/>
       <c r="J38" s="28"/>
       <c r="K38" s="28"/>
@@ -10758,15 +10760,15 @@
       <c r="C39" s="87" t="s">
         <v>118</v>
       </c>
-      <c r="D39" s="142" t="s">
+      <c r="D39" s="155" t="s">
         <v>119</v>
       </c>
-      <c r="E39" s="142"/>
-      <c r="F39" s="143" t="s">
+      <c r="E39" s="155"/>
+      <c r="F39" s="144" t="s">
         <v>120</v>
       </c>
-      <c r="G39" s="143"/>
-      <c r="H39" s="143"/>
+      <c r="G39" s="144"/>
+      <c r="H39" s="144"/>
       <c r="I39" s="28"/>
       <c r="J39" s="28"/>
       <c r="K39" s="28"/>
@@ -11749,6 +11751,34 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:H25"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="E21:H21"/>
     <mergeCell ref="A2:H2"/>
@@ -11762,34 +11792,6 @@
     <mergeCell ref="B18:H18"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="E20:H20"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:H36"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H11" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
